--- a/data/trans_camb/P24_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>25,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,28</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,02</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 13,85</t>
+          <t>-6,57; 22,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 15,32</t>
+          <t>-9,19; 18,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 9,71</t>
+          <t>-8,65; 18,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 10,27</t>
+          <t>-8,04; 22,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 10,74</t>
+          <t>-3,89; 16,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 13,37</t>
+          <t>-3,38; 19,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 10,24</t>
+          <t>-2,19; 19,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 10,78</t>
+          <t>11,01; 54,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 9,84</t>
+          <t>-2,05; 15,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 13,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 15,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 35,94</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>175,35%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>183,82%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,65%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
+          <t>84,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,23%</t>
+          <t>127,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>109,82%</t>
+          <t>170,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>212,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>104,24%</t>
+          <t>661,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>102,45%</t>
+          <t>110,19%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>88,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>105,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>285,04%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 1032,01</t>
+          <t>-49,6; 802,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 1184,34</t>
+          <t>-76,75; 635,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 777,58</t>
+          <t>-68,48; 636,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 342,92</t>
+          <t>-56,29; 856,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 349,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 457,34</t>
+          <t>-96,07; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 375,4</t>
+          <t>-78,57; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 359,92</t>
+          <t>35,25; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 336,17</t>
+          <t>-29,43; 527,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-35,54; 521,18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-27,0; 545,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32,54; 1247,21</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,39</t>
+          <t>-1,39; 6,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 6,54</t>
+          <t>0,31; 9,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 1,68</t>
+          <t>-2,15; 5,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 8,24</t>
+          <t>-0,23; 8,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 7,08</t>
+          <t>0,09; 9,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 8,36</t>
+          <t>-2,0; 7,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,25</t>
+          <t>-0,43; 8,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,56</t>
+          <t>3,7; 14,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,85</t>
+          <t>0,48; 7,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 7,03</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 6,14</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 10,13</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,49%</t>
+          <t>106,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>191,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,86%</t>
+          <t>72,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>152,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>125,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>106,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>235,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>119,33%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>116,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>89,73%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>199,14%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,02; 89,04</t>
+          <t>-52,49; 844,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 238,28</t>
+          <t>-15,78; 1115,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 71,49</t>
+          <t>-65,81; 657,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 286,05</t>
+          <t>-26,28; 1031,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 246,97</t>
+          <t>-6,09; 538,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 271,91</t>
+          <t>-42,39; 370,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 136,08</t>
+          <t>-17,13; 477,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 186,46</t>
+          <t>50,27; 752,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 130,65</t>
+          <t>-3,08; 385,98</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12,08; 364,28</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 333,34</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>60,77; 513,81</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,18</t>
+          <t>-1,33; 6,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 9,41</t>
+          <t>2,07; 12,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,3</t>
+          <t>1,16; 11,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,75</t>
+          <t>-0,65; 7,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,24</t>
+          <t>-2,3; 3,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,17</t>
+          <t>-1,66; 4,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,47</t>
+          <t>-2,96; 2,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,63</t>
+          <t>0,18; 14,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,35</t>
+          <t>-1,26; 3,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 6,36</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 5,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 8,09</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>139,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>246,31%</t>
+          <t>421,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>202,94%</t>
+          <t>342,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>202,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>192,19%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>123,9%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>63,22%</t>
+          <t>-20,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>223,23%</t>
+          <t>253,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>168,4%</t>
+          <t>66,61%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>200,26%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>131,05%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>229,71%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,99; 572,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,26; 1229,51</t>
+          <t>5,6; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1046,51</t>
+          <t>-25,71; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,01; 650,53</t>
+          <t>-55,69; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 1203,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,29; 968,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 316,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,79; 632,13</t>
+          <t>-37,39; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,77; 516,75</t>
+          <t>-57,17; 578,22</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 1093,25</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-24,54; 1140,33</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 1586,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>112,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>81,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>100,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>102,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>68,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 138,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,38; 282,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 151,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,97; 200,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,74; 210,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,87; 247,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,24; 140,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,09; 191,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,34; 150,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10,54</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 6,42</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 9,05</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 6,41</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 7,86</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 5,55</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 5,23</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 6,04</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 18,33</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 5,06</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 5,99</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 5,23</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 11,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>114,97%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>177,84%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>113,84%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>148,2%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>98,57%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>83,64%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>99,02%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>359,14%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>106,04%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>128,01%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>106,16%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>257,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 353,41</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>40,64; 529,5</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 381,62</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>19,72; 435,02</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 291,96</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-19,92; 301,72</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 306,19</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>134,41; 851,38</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>23,23; 245,67</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>42,35; 279,87</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 251,78</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>119,55; 540,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
